--- a/data/c1_2.xlsx
+++ b/data/c1_2.xlsx
@@ -1,277 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr autoCompressPictures="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ebaf1b59df58285/Desktop/lewmargbook/Lewis-Marg-Bookdown/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_E4E691493327274314D9DD8D0BA82FCA52BB470F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D5A4AE8-ED9F-464B-93CF-0B3660027E82}"/>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId3"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="31">
   <si>
-    <t xml:space="preserve">Table 1.1.6. Real Gross Domestic Product, Chained Dollars</t>
+    <t>Q1</t>
   </si>
   <si>
-    <t xml:space="preserve">[Billions of chained (2012) dollars] Seasonally adjusted at annual rates</t>
+    <t>Q2</t>
   </si>
   <si>
-    <t xml:space="preserve">Bureau of Economic Analysis</t>
+    <t>Q3</t>
   </si>
   <si>
-    <t xml:space="preserve">Last Revised on: December 22, 2022 - Next Release Date January 26, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
+    <t>Q4</t>
   </si>
   <si>
     <t xml:space="preserve">        Gross domestic product</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal consumption expenditures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
+    <t>Personal consumption expenditures</t>
   </si>
   <si>
     <t xml:space="preserve">    Goods</t>
   </si>
   <si>
-    <t xml:space="preserve">---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
+    <t>---</t>
   </si>
   <si>
     <t xml:space="preserve">        Durable goods</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Nondurable goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">    Services</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross private domestic investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
+    <t>Gross private domestic investment</t>
   </si>
   <si>
     <t xml:space="preserve">    Fixed investment</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Nonresidential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">            Structures</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
     <t xml:space="preserve">            Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">            Intellectual property products</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Residential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">    Change in private inventories</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net exports of goods and services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
+    <t>Net exports of goods and services</t>
   </si>
   <si>
     <t xml:space="preserve">    Exports</t>
   </si>
   <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">        Services</t>
   </si>
   <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Imports</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government consumption expenditures and gross investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
+    <t>Government consumption expenditures and gross investment</t>
   </si>
   <si>
     <t xml:space="preserve">    Federal</t>
   </si>
   <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
     <t xml:space="preserve">        National defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
   </si>
   <si>
     <t xml:space="preserve">        Nondefense</t>
   </si>
   <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
     <t xml:space="preserve">    State and local</t>
   </si>
   <si>
-    <t xml:space="preserve">27</t>
+    <t>Residual</t>
   </si>
   <si>
-    <t xml:space="preserve">Residual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend / Footnotes:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note. Chained (2012) dollar series are calculated as the product of the chain-type quantity index and the 2012 current-dollar value of the corresponding series, divided by 100. Because the formula for the chain-type quantity indexes uses weights of more than one period, the corresponding chained-dollar estimates are usually not additive. The residual line is the difference between the first line and the sum of the most detailed lines.</t>
+    <t>cat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -283,12 +131,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <i/>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -306,12 +148,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -323,17 +159,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="12"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
@@ -341,85 +172,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -439,1091 +197,1582 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="64" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="3.1328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="13" width="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="32" width="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="51" width="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="52" max="52" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="78" width="8" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:78" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+    </row>
+    <row r="2" spans="1:78" ht="17.25" x14ac:dyDescent="0.85">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+    </row>
+    <row r="3" spans="1:78" x14ac:dyDescent="0.75">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+    </row>
+    <row r="4" spans="1:78" x14ac:dyDescent="0.75">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+    </row>
+    <row r="6" spans="1:78" x14ac:dyDescent="0.75">
+      <c r="A6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="6"/>
+      <c r="BU6" s="6"/>
+      <c r="BV6" s="6"/>
+      <c r="BW6" s="6"/>
+      <c r="BX6" s="6"/>
+      <c r="BY6" s="6"/>
+      <c r="BZ6" s="6"/>
+    </row>
+    <row r="7" spans="1:78" x14ac:dyDescent="0.75">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
+    <row r="8" spans="1:78" x14ac:dyDescent="0.75">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9540.4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9643.9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9739.2000000000007</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9840.7999999999993</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9857.2000000000007</v>
+      </c>
+      <c r="H8" s="2">
+        <v>9914.6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9961.9</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10097.4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10195.299999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>10333.5</v>
+      </c>
+      <c r="M8" s="2">
+        <v>10393.9</v>
+      </c>
+      <c r="N8" s="2">
+        <v>10513</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10550.3</v>
+      </c>
+      <c r="P8" s="2">
+        <v>10581.7</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>10671.7</v>
+      </c>
+      <c r="R8" s="2">
+        <v>10744.2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>10824.7</v>
+      </c>
+      <c r="T8" s="2">
+        <v>11005.2</v>
+      </c>
+      <c r="U8" s="2">
+        <v>11103.9</v>
+      </c>
+      <c r="V8" s="2">
+        <v>11219.2</v>
+      </c>
+      <c r="W8" s="2">
+        <v>11291.7</v>
+      </c>
+      <c r="X8" s="2">
+        <v>11479.3</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>11622.9</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>11722.7</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>11839.9</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>11949.5</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>12099.2</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>12294.7</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>12410.8</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>12514.4</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>12680</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>12888.3</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>12935.3</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>13170.7</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>13183.9</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>13262.3</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>13219.3</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>13301.4</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>13248.1</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>13284.9</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>13394.9</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>13477.4</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>13531.7</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>13549.4</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>13619.4</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>13741.1</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>13970.2</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>14131.4</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>14212.3</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>14323</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>14457.8</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>14605.6</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>14767.8</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>14839.7</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>14956.3</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>15041.2</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>15244.1</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>15281.5</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>15304.5</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>15433.6</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>15479</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>15577.8</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>15671.6</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>15767.1</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>15702.9</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>15792.8</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>15709.6</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>15366.6</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>15187.5</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>15161.8</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>15216.6</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>15379.2</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>15456.1</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>15605.6</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>15726.3</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>15808</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="9" spans="1:78" x14ac:dyDescent="0.75">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6173.4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6215.3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6281.9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6356.8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6381.2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6439.2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6510.9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6568</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6643.2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6694.8</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6745.9</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6818.8</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6835.8</v>
+      </c>
+      <c r="P9" s="2">
+        <v>6895.7</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>6958.2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>7006.7</v>
+      </c>
+      <c r="S9" s="2">
+        <v>7071.4</v>
+      </c>
+      <c r="T9" s="2">
+        <v>7147.4</v>
+      </c>
+      <c r="U9" s="2">
+        <v>7190.7</v>
+      </c>
+      <c r="V9" s="2">
+        <v>7248</v>
+      </c>
+      <c r="W9" s="2">
+        <v>7324.4</v>
+      </c>
+      <c r="X9" s="2">
+        <v>7357.4</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>7482.7</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>7572.1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>7648.7</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>7783.4</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>7884.9</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>7998.8</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>8081</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>8204.7999999999993</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>8297</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>8418.2999999999993</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>8545.6</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>8625.4</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>8708.1</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>8784.2000000000007</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>8816</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>8833.7000000000007</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>8864.5</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>9007.5</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>9027.5</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>9073.2000000000007</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>9136.7000000000007</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>9187.5</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>9232.7999999999993</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>9338.5</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>9470.5</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>9535.7000000000007</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>9624.6</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>9677.2000000000007</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>9790.7999999999993</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>9901.6</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>9964.5</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>10074.9</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>10158.5</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>10177.200000000001</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>10288.200000000001</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>10341.6</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>10408</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>10507.2</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>10572.1</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>10599.8</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>10670.5</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>10712.6</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>10697.9</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>10727.3</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>10644.7</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>10548.9</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>10522.1</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>10470.4</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>10540.8</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>10529.2</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>10590.2</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>10685.1</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>10761.4</v>
+      </c>
+      <c r="BZ9" s="2">
+        <v>10827.3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.75">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
-      <c r="BG6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH6" s="1"/>
-      <c r="BI6" s="1"/>
-      <c r="BJ6" s="1"/>
-      <c r="BK6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BL6" s="1"/>
-      <c r="BM6" s="1"/>
-      <c r="BN6" s="1"/>
-      <c r="BO6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP6" s="1"/>
-      <c r="BQ6" s="1"/>
-      <c r="BR6" s="1"/>
-      <c r="BS6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BT6" s="1"/>
-      <c r="BU6" s="1"/>
-      <c r="BV6" s="1"/>
-      <c r="BW6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BX6" s="1"/>
-      <c r="BY6" s="1"/>
-      <c r="BZ6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BR7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BS7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BT7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BU7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BW7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BX7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BY7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BZ7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4">
-        <v>9540.4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>9643.9</v>
-      </c>
-      <c r="E8" s="4">
-        <v>9739.2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>9840.8</v>
-      </c>
-      <c r="G8" s="4">
-        <v>9857.2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>9914.6</v>
-      </c>
-      <c r="I8" s="4">
-        <v>9961.9</v>
-      </c>
-      <c r="J8" s="4">
-        <v>10097.4</v>
-      </c>
-      <c r="K8" s="4">
-        <v>10195.3</v>
-      </c>
-      <c r="L8" s="4">
-        <v>10333.5</v>
-      </c>
-      <c r="M8" s="4">
-        <v>10393.9</v>
-      </c>
-      <c r="N8" s="4">
-        <v>10513</v>
-      </c>
-      <c r="O8" s="4">
-        <v>10550.3</v>
-      </c>
-      <c r="P8" s="4">
-        <v>10581.7</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>10671.7</v>
-      </c>
-      <c r="R8" s="4">
-        <v>10744.2</v>
-      </c>
-      <c r="S8" s="4">
-        <v>10824.7</v>
-      </c>
-      <c r="T8" s="4">
-        <v>11005.2</v>
-      </c>
-      <c r="U8" s="4">
-        <v>11103.9</v>
-      </c>
-      <c r="V8" s="4">
-        <v>11219.2</v>
-      </c>
-      <c r="W8" s="4">
-        <v>11291.7</v>
-      </c>
-      <c r="X8" s="4">
-        <v>11479.3</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>11622.9</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>11722.7</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>11839.9</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>11949.5</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>12099.2</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>12294.7</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>12410.8</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>12514.4</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>12680</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>12888.3</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>12935.3</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>13170.7</v>
-      </c>
-      <c r="AK8" s="4">
-        <v>13183.9</v>
-      </c>
-      <c r="AL8" s="4">
-        <v>13262.3</v>
-      </c>
-      <c r="AM8" s="4">
-        <v>13219.3</v>
-      </c>
-      <c r="AN8" s="4">
-        <v>13301.4</v>
-      </c>
-      <c r="AO8" s="4">
-        <v>13248.1</v>
-      </c>
-      <c r="AP8" s="4">
-        <v>13284.9</v>
-      </c>
-      <c r="AQ8" s="4">
-        <v>13394.9</v>
-      </c>
-      <c r="AR8" s="4">
-        <v>13477.4</v>
-      </c>
-      <c r="AS8" s="4">
-        <v>13531.7</v>
-      </c>
-      <c r="AT8" s="4">
-        <v>13549.4</v>
-      </c>
-      <c r="AU8" s="4">
-        <v>13619.4</v>
-      </c>
-      <c r="AV8" s="4">
-        <v>13741.1</v>
-      </c>
-      <c r="AW8" s="4">
-        <v>13970.2</v>
-      </c>
-      <c r="AX8" s="4">
-        <v>14131.4</v>
-      </c>
-      <c r="AY8" s="4">
-        <v>14212.3</v>
-      </c>
-      <c r="AZ8" s="4">
-        <v>14323</v>
-      </c>
-      <c r="BA8" s="4">
-        <v>14457.8</v>
-      </c>
-      <c r="BB8" s="4">
-        <v>14605.6</v>
-      </c>
-      <c r="BC8" s="4">
-        <v>14767.8</v>
-      </c>
-      <c r="BD8" s="4">
-        <v>14839.7</v>
-      </c>
-      <c r="BE8" s="4">
-        <v>14956.3</v>
-      </c>
-      <c r="BF8" s="4">
-        <v>15041.2</v>
-      </c>
-      <c r="BG8" s="4">
-        <v>15244.1</v>
-      </c>
-      <c r="BH8" s="4">
-        <v>15281.5</v>
-      </c>
-      <c r="BI8" s="4">
-        <v>15304.5</v>
-      </c>
-      <c r="BJ8" s="4">
-        <v>15433.6</v>
-      </c>
-      <c r="BK8" s="4">
-        <v>15479</v>
-      </c>
-      <c r="BL8" s="4">
-        <v>15577.8</v>
-      </c>
-      <c r="BM8" s="4">
-        <v>15671.6</v>
-      </c>
-      <c r="BN8" s="4">
-        <v>15767.1</v>
-      </c>
-      <c r="BO8" s="4">
-        <v>15702.9</v>
-      </c>
-      <c r="BP8" s="4">
-        <v>15792.8</v>
-      </c>
-      <c r="BQ8" s="4">
-        <v>15709.6</v>
-      </c>
-      <c r="BR8" s="4">
-        <v>15366.6</v>
-      </c>
-      <c r="BS8" s="4">
-        <v>15187.5</v>
-      </c>
-      <c r="BT8" s="4">
-        <v>15161.8</v>
-      </c>
-      <c r="BU8" s="4">
-        <v>15216.6</v>
-      </c>
-      <c r="BV8" s="4">
-        <v>15379.2</v>
-      </c>
-      <c r="BW8" s="4">
-        <v>15456.1</v>
-      </c>
-      <c r="BX8" s="4">
-        <v>15605.6</v>
-      </c>
-      <c r="BY8" s="4">
-        <v>15726.3</v>
-      </c>
-      <c r="BZ8" s="4">
-        <v>15808</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6173.4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>6215.3</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6281.9</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6356.8</v>
-      </c>
-      <c r="G9" s="4">
-        <v>6381.2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>6439.2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>6510.9</v>
-      </c>
-      <c r="J9" s="4">
-        <v>6568</v>
-      </c>
-      <c r="K9" s="4">
-        <v>6643.2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>6694.8</v>
-      </c>
-      <c r="M9" s="4">
-        <v>6745.9</v>
-      </c>
-      <c r="N9" s="4">
-        <v>6818.8</v>
-      </c>
-      <c r="O9" s="4">
-        <v>6835.8</v>
-      </c>
-      <c r="P9" s="4">
-        <v>6895.7</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>6958.2</v>
-      </c>
-      <c r="R9" s="4">
-        <v>7006.7</v>
-      </c>
-      <c r="S9" s="4">
-        <v>7071.4</v>
-      </c>
-      <c r="T9" s="4">
-        <v>7147.4</v>
-      </c>
-      <c r="U9" s="4">
-        <v>7190.7</v>
-      </c>
-      <c r="V9" s="4">
-        <v>7248</v>
-      </c>
-      <c r="W9" s="4">
-        <v>7324.4</v>
-      </c>
-      <c r="X9" s="4">
-        <v>7357.4</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>7482.7</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>7572.1</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>7648.7</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>7783.4</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>7884.9</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>7998.8</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>8081</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>8204.8</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>8297</v>
-      </c>
-      <c r="AH9" s="4">
-        <v>8418.3</v>
-      </c>
-      <c r="AI9" s="4">
-        <v>8545.6</v>
-      </c>
-      <c r="AJ9" s="4">
-        <v>8625.4</v>
-      </c>
-      <c r="AK9" s="4">
-        <v>8708.1</v>
-      </c>
-      <c r="AL9" s="4">
-        <v>8784.2</v>
-      </c>
-      <c r="AM9" s="4">
-        <v>8816</v>
-      </c>
-      <c r="AN9" s="4">
-        <v>8833.7</v>
-      </c>
-      <c r="AO9" s="4">
-        <v>8864.5</v>
-      </c>
-      <c r="AP9" s="4">
-        <v>9007.5</v>
-      </c>
-      <c r="AQ9" s="4">
-        <v>9027.5</v>
-      </c>
-      <c r="AR9" s="4">
-        <v>9073.2</v>
-      </c>
-      <c r="AS9" s="4">
-        <v>9136.7</v>
-      </c>
-      <c r="AT9" s="4">
-        <v>9187.5</v>
-      </c>
-      <c r="AU9" s="4">
-        <v>9232.8</v>
-      </c>
-      <c r="AV9" s="4">
-        <v>9338.5</v>
-      </c>
-      <c r="AW9" s="4">
-        <v>9470.5</v>
-      </c>
-      <c r="AX9" s="4">
-        <v>9535.7</v>
-      </c>
-      <c r="AY9" s="4">
-        <v>9624.6</v>
-      </c>
-      <c r="AZ9" s="4">
-        <v>9677.2</v>
-      </c>
-      <c r="BA9" s="4">
-        <v>9790.8</v>
-      </c>
-      <c r="BB9" s="4">
-        <v>9901.6</v>
-      </c>
-      <c r="BC9" s="4">
-        <v>9964.5</v>
-      </c>
-      <c r="BD9" s="4">
-        <v>10074.9</v>
-      </c>
-      <c r="BE9" s="4">
-        <v>10158.5</v>
-      </c>
-      <c r="BF9" s="4">
-        <v>10177.2</v>
-      </c>
-      <c r="BG9" s="4">
-        <v>10288.2</v>
-      </c>
-      <c r="BH9" s="4">
-        <v>10341.6</v>
-      </c>
-      <c r="BI9" s="4">
-        <v>10408</v>
-      </c>
-      <c r="BJ9" s="4">
-        <v>10507.2</v>
-      </c>
-      <c r="BK9" s="4">
-        <v>10572.1</v>
-      </c>
-      <c r="BL9" s="4">
-        <v>10599.8</v>
-      </c>
-      <c r="BM9" s="4">
-        <v>10670.5</v>
-      </c>
-      <c r="BN9" s="4">
-        <v>10712.6</v>
-      </c>
-      <c r="BO9" s="4">
-        <v>10697.9</v>
-      </c>
-      <c r="BP9" s="4">
-        <v>10727.3</v>
-      </c>
-      <c r="BQ9" s="4">
-        <v>10644.7</v>
-      </c>
-      <c r="BR9" s="4">
-        <v>10548.9</v>
-      </c>
-      <c r="BS9" s="4">
-        <v>10522.1</v>
-      </c>
-      <c r="BT9" s="4">
-        <v>10470.4</v>
-      </c>
-      <c r="BU9" s="4">
-        <v>10540.8</v>
-      </c>
-      <c r="BV9" s="4">
-        <v>10529.2</v>
-      </c>
-      <c r="BW9" s="4">
-        <v>10590.2</v>
-      </c>
-      <c r="BX9" s="4">
-        <v>10685.1</v>
-      </c>
-      <c r="BY9" s="4">
-        <v>10761.4</v>
-      </c>
-      <c r="BZ9" s="4">
-        <v>10827.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ10">
         <v>2920.5</v>
@@ -1634,132 +1883,129 @@
         <v>3546.9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
+    <row r="11" spans="1:78" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ11">
         <v>806.1</v>
@@ -1810,7 +2056,7 @@
         <v>998.2</v>
       </c>
       <c r="BG11">
-        <v>1037.9</v>
+        <v>1037.9000000000001</v>
       </c>
       <c r="BH11">
         <v>1038.3</v>
@@ -1822,16 +2068,16 @@
         <v>1068</v>
       </c>
       <c r="BK11">
-        <v>1082.4</v>
+        <v>1082.4000000000001</v>
       </c>
       <c r="BL11">
         <v>1093.7</v>
       </c>
       <c r="BM11">
-        <v>1107.1</v>
+        <v>1107.0999999999999</v>
       </c>
       <c r="BN11">
-        <v>1115.4</v>
+        <v>1115.4000000000001</v>
       </c>
       <c r="BO11">
         <v>1079.3</v>
@@ -1864,159 +2110,156 @@
         <v>1019.8</v>
       </c>
       <c r="BY11">
-        <v>1035.9</v>
+        <v>1035.9000000000001</v>
       </c>
       <c r="BZ11">
-        <v>1064.9</v>
+        <v>1064.9000000000001</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
+    <row r="12" spans="1:78" x14ac:dyDescent="0.75">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ12">
-        <v>2148.2</v>
+        <v>2148.1999999999998</v>
       </c>
       <c r="AR12">
-        <v>2149.7</v>
+        <v>2149.6999999999998</v>
       </c>
       <c r="AS12">
-        <v>2153.3</v>
+        <v>2153.3000000000002</v>
       </c>
       <c r="AT12">
         <v>2179.1</v>
       </c>
       <c r="AU12">
-        <v>2196.7</v>
+        <v>2196.6999999999998</v>
       </c>
       <c r="AV12">
-        <v>2214.3</v>
+        <v>2214.3000000000002</v>
       </c>
       <c r="AW12">
-        <v>2255.2</v>
+        <v>2255.1999999999998</v>
       </c>
       <c r="AX12">
         <v>2268.1</v>
@@ -2025,19 +2268,19 @@
         <v>2285.5</v>
       </c>
       <c r="AZ12">
-        <v>2294.7</v>
+        <v>2294.6999999999998</v>
       </c>
       <c r="BA12">
         <v>2311.1</v>
       </c>
       <c r="BB12">
-        <v>2334.7</v>
+        <v>2334.6999999999998</v>
       </c>
       <c r="BC12">
         <v>2356.6</v>
       </c>
       <c r="BD12">
-        <v>2375.3</v>
+        <v>2375.3000000000002</v>
       </c>
       <c r="BE12">
         <v>2384.1</v>
@@ -2046,13 +2289,13 @@
         <v>2417.5</v>
       </c>
       <c r="BG12">
-        <v>2442.3</v>
+        <v>2442.3000000000002</v>
       </c>
       <c r="BH12">
-        <v>2447.2</v>
+        <v>2447.1999999999998</v>
       </c>
       <c r="BI12">
-        <v>2461.3</v>
+        <v>2461.3000000000002</v>
       </c>
       <c r="BJ12">
         <v>2495.5</v>
@@ -2061,7 +2304,7 @@
         <v>2503.9</v>
       </c>
       <c r="BL12">
-        <v>2498.7</v>
+        <v>2498.6999999999998</v>
       </c>
       <c r="BM12">
         <v>2506.5</v>
@@ -2079,13 +2322,13 @@
         <v>2452.6</v>
       </c>
       <c r="BR12">
-        <v>2429.2</v>
+        <v>2429.1999999999998</v>
       </c>
       <c r="BS12">
-        <v>2428.3</v>
+        <v>2428.3000000000002</v>
       </c>
       <c r="BT12">
-        <v>2413.7</v>
+        <v>2413.6999999999998</v>
       </c>
       <c r="BU12">
         <v>2421.4</v>
@@ -2106,132 +2349,129 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
+    <row r="13" spans="1:78" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ13">
         <v>6117.2</v>
@@ -2342,389 +2582,383 @@
         <v>7280.7</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.75">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
         <v>1161.7</v>
       </c>
-      <c r="D14" s="4">
-        <v>1227.4</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="2">
+        <v>1227.4000000000001</v>
+      </c>
+      <c r="E14" s="2">
         <v>1237.2</v>
       </c>
-      <c r="F14" s="4">
-        <v>1274.9</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="2">
+        <v>1274.9000000000001</v>
+      </c>
+      <c r="G14" s="2">
         <v>1305</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>1312.5</v>
       </c>
-      <c r="I14" s="4">
-        <v>1303.6</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="I14" s="2">
+        <v>1303.5999999999999</v>
+      </c>
+      <c r="J14" s="2">
         <v>1372.1</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>1424.4</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>1494.4</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="2">
         <v>1470</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <v>1530.5</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="2">
         <v>1546.5</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="2">
         <v>1514.4</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="2">
         <v>1505.4</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="2">
         <v>1542.8</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="2">
         <v>1567.6</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="2">
         <v>1642.9</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="2">
         <v>1717.5</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="2">
         <v>1715.2</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="2">
         <v>1749.9</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="2">
         <v>1857</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="2">
         <v>1883</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="2">
         <v>1911</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AA14" s="2">
         <v>1994.4</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AB14" s="2">
         <v>1982.1</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AC14" s="2">
         <v>2033</v>
       </c>
-      <c r="AD14" s="4">
-        <v>2095.8</v>
-      </c>
-      <c r="AE14" s="4">
-        <v>2153.3</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>2154.7</v>
-      </c>
-      <c r="AG14" s="4">
-        <v>2213.8</v>
-      </c>
-      <c r="AH14" s="4">
+      <c r="AD14" s="2">
+        <v>2095.8000000000002</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>2153.3000000000002</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>2154.6999999999998</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>2213.8000000000002</v>
+      </c>
+      <c r="AH14" s="2">
         <v>2273.1</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AI14" s="2">
         <v>2257.1</v>
       </c>
-      <c r="AJ14" s="4">
-        <v>2390.7</v>
-      </c>
-      <c r="AK14" s="4">
-        <v>2367.3</v>
-      </c>
-      <c r="AL14" s="4">
-        <v>2371.8</v>
-      </c>
-      <c r="AM14" s="4">
-        <v>2264.2</v>
-      </c>
-      <c r="AN14" s="4">
+      <c r="AJ14" s="2">
+        <v>2390.6999999999998</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>2367.3000000000002</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>2371.8000000000002</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>2264.1999999999998</v>
+      </c>
+      <c r="AN14" s="2">
         <v>2267.4</v>
       </c>
-      <c r="AO14" s="4">
+      <c r="AO14" s="2">
         <v>2218.4</v>
       </c>
-      <c r="AP14" s="4">
+      <c r="AP14" s="2">
         <v>2108.5</v>
       </c>
-      <c r="AQ14" s="4">
-        <v>2170.7</v>
-      </c>
-      <c r="AR14" s="4">
+      <c r="AQ14" s="2">
+        <v>2170.6999999999998</v>
+      </c>
+      <c r="AR14" s="2">
         <v>2206.4</v>
       </c>
-      <c r="AS14" s="4">
+      <c r="AS14" s="2">
         <v>2203.1</v>
       </c>
-      <c r="AT14" s="4">
-        <v>2201.7</v>
-      </c>
-      <c r="AU14" s="4">
-        <v>2218.7</v>
-      </c>
-      <c r="AV14" s="4">
+      <c r="AT14" s="2">
+        <v>2201.6999999999998</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>2218.6999999999998</v>
+      </c>
+      <c r="AV14" s="2">
         <v>2234</v>
       </c>
-      <c r="AW14" s="4">
+      <c r="AW14" s="2">
         <v>2315.4</v>
       </c>
-      <c r="AX14" s="4">
+      <c r="AX14" s="2">
         <v>2393.4</v>
       </c>
-      <c r="AY14" s="4">
-        <v>2398.2</v>
-      </c>
-      <c r="AZ14" s="4">
+      <c r="AY14" s="2">
+        <v>2398.1999999999998</v>
+      </c>
+      <c r="AZ14" s="2">
         <v>2493.9</v>
       </c>
-      <c r="BA14" s="4">
+      <c r="BA14" s="2">
         <v>2532.6</v>
       </c>
-      <c r="BB14" s="4">
+      <c r="BB14" s="2">
         <v>2585.5</v>
       </c>
-      <c r="BC14" s="4">
+      <c r="BC14" s="2">
         <v>2658.2</v>
       </c>
-      <c r="BD14" s="4">
+      <c r="BD14" s="2">
         <v>2622.8</v>
       </c>
-      <c r="BE14" s="4">
+      <c r="BE14" s="2">
         <v>2657.5</v>
       </c>
-      <c r="BF14" s="4">
+      <c r="BF14" s="2">
         <v>2743.8</v>
       </c>
-      <c r="BG14" s="4">
+      <c r="BG14" s="2">
         <v>2784.6</v>
       </c>
-      <c r="BH14" s="4">
+      <c r="BH14" s="2">
         <v>2766.6</v>
       </c>
-      <c r="BI14" s="4">
+      <c r="BI14" s="2">
         <v>2756</v>
       </c>
-      <c r="BJ14" s="4">
+      <c r="BJ14" s="2">
         <v>2702.5</v>
       </c>
-      <c r="BK14" s="4">
+      <c r="BK14" s="2">
         <v>2683.9</v>
       </c>
-      <c r="BL14" s="4">
+      <c r="BL14" s="2">
         <v>2713.5</v>
       </c>
-      <c r="BM14" s="4">
+      <c r="BM14" s="2">
         <v>2686.1</v>
       </c>
-      <c r="BN14" s="4">
+      <c r="BN14" s="2">
         <v>2653.1</v>
       </c>
-      <c r="BO14" s="4">
-        <v>2583.3</v>
-      </c>
-      <c r="BP14" s="4">
+      <c r="BO14" s="2">
+        <v>2583.3000000000002</v>
+      </c>
+      <c r="BP14" s="2">
         <v>2536.4</v>
       </c>
-      <c r="BQ14" s="4">
+      <c r="BQ14" s="2">
         <v>2485.5</v>
       </c>
-      <c r="BR14" s="4">
+      <c r="BR14" s="2">
         <v>2246.4</v>
       </c>
-      <c r="BS14" s="4">
+      <c r="BS14" s="2">
         <v>1986.8</v>
       </c>
-      <c r="BT14" s="4">
+      <c r="BT14" s="2">
         <v>1872.3</v>
       </c>
-      <c r="BU14" s="4">
+      <c r="BU14" s="2">
         <v>1868</v>
       </c>
-      <c r="BV14" s="4">
+      <c r="BV14" s="2">
         <v>2040.7</v>
       </c>
-      <c r="BW14" s="4">
-        <v>2087.2</v>
-      </c>
-      <c r="BX14" s="4">
-        <v>2196.7</v>
-      </c>
-      <c r="BY14" s="4">
-        <v>2294.7</v>
-      </c>
-      <c r="BZ14" s="4">
+      <c r="BW14" s="2">
+        <v>2087.1999999999998</v>
+      </c>
+      <c r="BX14" s="2">
+        <v>2196.6999999999998</v>
+      </c>
+      <c r="BY14" s="2">
+        <v>2294.6999999999998</v>
+      </c>
+      <c r="BZ14" s="2">
         <v>2287.4</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
+    <row r="15" spans="1:78" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ15">
         <v>2189.1</v>
       </c>
       <c r="AR15">
-        <v>2186.7</v>
+        <v>2186.6999999999998</v>
       </c>
       <c r="AS15">
         <v>2183.5</v>
       </c>
       <c r="AT15">
-        <v>2174.3</v>
+        <v>2174.3000000000002</v>
       </c>
       <c r="AU15">
         <v>2194</v>
       </c>
       <c r="AV15">
-        <v>2246.8</v>
+        <v>2246.8000000000002</v>
       </c>
       <c r="AW15">
-        <v>2319.7</v>
+        <v>2319.6999999999998</v>
       </c>
       <c r="AX15">
         <v>2361.9</v>
@@ -2733,19 +2967,19 @@
         <v>2355.4</v>
       </c>
       <c r="AZ15">
-        <v>2419.8</v>
+        <v>2419.8000000000002</v>
       </c>
       <c r="BA15">
-        <v>2471.2</v>
+        <v>2471.1999999999998</v>
       </c>
       <c r="BB15">
-        <v>2516.3</v>
+        <v>2516.3000000000002</v>
       </c>
       <c r="BC15">
         <v>2560.4</v>
       </c>
       <c r="BD15">
-        <v>2603.8</v>
+        <v>2603.8000000000002</v>
       </c>
       <c r="BE15">
         <v>2649.3</v>
@@ -2787,7 +3021,7 @@
         <v>2503</v>
       </c>
       <c r="BR15">
-        <v>2337.8</v>
+        <v>2337.8000000000002</v>
       </c>
       <c r="BS15">
         <v>2151.9</v>
@@ -2808,138 +3042,135 @@
         <v>2167.1</v>
       </c>
       <c r="BY15">
-        <v>2178.7</v>
+        <v>2178.6999999999998</v>
       </c>
       <c r="BZ15">
         <v>2220</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
+    <row r="16" spans="1:78" x14ac:dyDescent="0.75">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ16">
         <v>1492.6</v>
@@ -3050,132 +3281,129 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
+    <row r="17" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ17">
         <v>506.9</v>
@@ -3241,7 +3469,7 @@
         <v>529.4</v>
       </c>
       <c r="BL17">
-        <v>558.8</v>
+        <v>558.79999999999995</v>
       </c>
       <c r="BM17">
         <v>585.6</v>
@@ -3250,10 +3478,10 @@
         <v>600.6</v>
       </c>
       <c r="BO17">
-        <v>603.3</v>
+        <v>603.29999999999995</v>
       </c>
       <c r="BP17">
-        <v>613.3</v>
+        <v>613.29999999999995</v>
       </c>
       <c r="BQ17">
         <v>609.6</v>
@@ -3262,7 +3490,7 @@
         <v>595.5</v>
       </c>
       <c r="BS17">
-        <v>551.3</v>
+        <v>551.29999999999995</v>
       </c>
       <c r="BT17">
         <v>509</v>
@@ -3286,132 +3514,129 @@
         <v>418.6</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
+    <row r="18" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B18" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ18">
         <v>610</v>
@@ -3423,13 +3648,13 @@
         <v>612.9</v>
       </c>
       <c r="AT18">
-        <v>601.2</v>
+        <v>601.20000000000005</v>
       </c>
       <c r="AU18">
         <v>603.4</v>
       </c>
       <c r="AV18">
-        <v>627.2</v>
+        <v>627.20000000000005</v>
       </c>
       <c r="AW18">
         <v>647.6</v>
@@ -3498,13 +3723,13 @@
         <v>735.7</v>
       </c>
       <c r="BS18">
-        <v>653.7</v>
+        <v>653.70000000000005</v>
       </c>
       <c r="BT18">
-        <v>627.8</v>
+        <v>627.79999999999995</v>
       </c>
       <c r="BU18">
-        <v>643.7</v>
+        <v>643.70000000000005</v>
       </c>
       <c r="BV18">
         <v>673.5</v>
@@ -3522,132 +3747,129 @@
         <v>825.9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
+    <row r="19" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B19" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ19">
         <v>417.3</v>
@@ -3710,13 +3932,13 @@
         <v>543.1</v>
       </c>
       <c r="BK19">
-        <v>547.7</v>
+        <v>547.70000000000005</v>
       </c>
       <c r="BL19">
         <v>551.4</v>
       </c>
       <c r="BM19">
-        <v>553.3</v>
+        <v>553.29999999999995</v>
       </c>
       <c r="BN19">
         <v>565</v>
@@ -3731,10 +3953,10 @@
         <v>574.4</v>
       </c>
       <c r="BR19">
-        <v>570.3</v>
+        <v>570.29999999999995</v>
       </c>
       <c r="BS19">
-        <v>554.7</v>
+        <v>554.70000000000005</v>
       </c>
       <c r="BT19">
         <v>568.6</v>
@@ -3752,138 +3974,135 @@
         <v>579</v>
       </c>
       <c r="BY19">
-        <v>590.3</v>
+        <v>590.29999999999995</v>
       </c>
       <c r="BZ19">
-        <v>601.3</v>
+        <v>601.29999999999995</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
+    <row r="20" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ20">
         <v>675.9</v>
@@ -3958,10 +4177,10 @@
         <v>596.1</v>
       </c>
       <c r="BO20">
-        <v>548.7</v>
+        <v>548.70000000000005</v>
       </c>
       <c r="BP20">
-        <v>523.8</v>
+        <v>523.79999999999995</v>
       </c>
       <c r="BQ20">
         <v>497.2</v>
@@ -3994,132 +4213,129 @@
         <v>374.7</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
+    <row r="21" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ21">
         <v>-7.8</v>
@@ -4137,7 +4353,7 @@
         <v>39.9</v>
       </c>
       <c r="AV21">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AW21">
         <v>2.8</v>
@@ -4221,257 +4437,251 @@
         <v>-5</v>
       </c>
       <c r="BX21">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="BY21">
-        <v>128.8</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="BZ21">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ22" s="4">
+    <row r="22" spans="2:78" x14ac:dyDescent="0.75">
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ22" s="2">
         <v>-646.4</v>
       </c>
-      <c r="AR22" s="4">
+      <c r="AR22" s="2">
         <v>-672.8</v>
       </c>
-      <c r="AS22" s="4">
+      <c r="AS22" s="2">
         <v>-693.6</v>
       </c>
-      <c r="AT22" s="4">
+      <c r="AT22" s="2">
         <v>-748.3</v>
       </c>
-      <c r="AU22" s="4">
+      <c r="AU22" s="2">
         <v>-743.4</v>
       </c>
-      <c r="AV22" s="4">
+      <c r="AV22" s="2">
         <v>-770.5</v>
       </c>
-      <c r="AW22" s="4">
+      <c r="AW22" s="2">
         <v>-767.8</v>
       </c>
-      <c r="AX22" s="4">
+      <c r="AX22" s="2">
         <v>-774.9</v>
       </c>
-      <c r="AY22" s="4">
+      <c r="AY22" s="2">
         <v>-804</v>
       </c>
-      <c r="AZ22" s="4">
+      <c r="AZ22" s="2">
         <v>-861.4</v>
       </c>
-      <c r="BA22" s="4">
+      <c r="BA22" s="2">
         <v>-888.4</v>
       </c>
-      <c r="BB22" s="4">
+      <c r="BB22" s="2">
         <v>-908.5</v>
       </c>
-      <c r="BC22" s="4">
+      <c r="BC22" s="2">
         <v>-901.5</v>
       </c>
-      <c r="BD22" s="4">
+      <c r="BD22" s="2">
         <v>-900.2</v>
       </c>
-      <c r="BE22" s="4">
+      <c r="BE22" s="2">
         <v>-914.2</v>
       </c>
-      <c r="BF22" s="4">
+      <c r="BF22" s="2">
         <v>-945.5</v>
       </c>
-      <c r="BG22" s="4">
+      <c r="BG22" s="2">
         <v>-933.7</v>
       </c>
-      <c r="BH22" s="4">
+      <c r="BH22" s="2">
         <v>-929</v>
       </c>
-      <c r="BI22" s="4">
+      <c r="BI22" s="2">
         <v>-957.1</v>
       </c>
-      <c r="BJ22" s="4">
+      <c r="BJ22" s="2">
         <v>-890.7</v>
       </c>
-      <c r="BK22" s="4">
+      <c r="BK22" s="2">
         <v>-894.6</v>
       </c>
-      <c r="BL22" s="4">
+      <c r="BL22" s="2">
         <v>-882.1</v>
       </c>
-      <c r="BM22" s="4">
+      <c r="BM22" s="2">
         <v>-841.3</v>
       </c>
-      <c r="BN22" s="4">
+      <c r="BN22" s="2">
         <v>-773.7</v>
       </c>
-      <c r="BO22" s="4">
+      <c r="BO22" s="2">
         <v>-753.7</v>
       </c>
-      <c r="BP22" s="4">
+      <c r="BP22" s="2">
         <v>-672.3</v>
       </c>
-      <c r="BQ22" s="4">
-        <v>-647.8</v>
-      </c>
-      <c r="BR22" s="4">
+      <c r="BQ22" s="2">
+        <v>-647.79999999999995</v>
+      </c>
+      <c r="BR22" s="2">
         <v>-668.9</v>
       </c>
-      <c r="BS22" s="4">
-        <v>-577.3</v>
-      </c>
-      <c r="BT22" s="4">
+      <c r="BS22" s="2">
+        <v>-577.29999999999995</v>
+      </c>
+      <c r="BT22" s="2">
         <v>-473.7</v>
       </c>
-      <c r="BU22" s="4">
+      <c r="BU22" s="2">
         <v>-500.5</v>
       </c>
-      <c r="BV22" s="4">
+      <c r="BV22" s="2">
         <v>-513.6</v>
       </c>
-      <c r="BW22" s="4">
-        <v>-531.8</v>
-      </c>
-      <c r="BX22" s="4">
-        <v>-601.3</v>
-      </c>
-      <c r="BY22" s="4">
+      <c r="BW22" s="2">
+        <v>-531.79999999999995</v>
+      </c>
+      <c r="BX22" s="2">
+        <v>-601.29999999999995</v>
+      </c>
+      <c r="BY22" s="2">
         <v>-634.9</v>
       </c>
-      <c r="BZ22" s="4">
+      <c r="BZ22" s="2">
         <v>-589.5</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
+    <row r="23" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B23" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>779.2</v>
@@ -4525,7 +4735,7 @@
         <v>1024.5</v>
       </c>
       <c r="T23">
-        <v>1041.1</v>
+        <v>1041.0999999999999</v>
       </c>
       <c r="U23">
         <v>1049.5</v>
@@ -4537,31 +4747,31 @@
         <v>1136.2</v>
       </c>
       <c r="X23">
-        <v>1181.6</v>
+        <v>1181.5999999999999</v>
       </c>
       <c r="Y23">
-        <v>1208.9</v>
+        <v>1208.9000000000001</v>
       </c>
       <c r="Z23">
         <v>1207.3</v>
       </c>
       <c r="AA23">
-        <v>1212.9</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="AB23">
         <v>1199.5</v>
       </c>
       <c r="AC23">
-        <v>1193.9</v>
+        <v>1193.9000000000001</v>
       </c>
       <c r="AD23">
-        <v>1238.1</v>
+        <v>1238.0999999999999</v>
       </c>
       <c r="AE23">
         <v>1234.5</v>
       </c>
       <c r="AF23">
-        <v>1249.6</v>
+        <v>1249.5999999999999</v>
       </c>
       <c r="AG23">
         <v>1287.2</v>
@@ -4591,25 +4801,25 @@
         <v>1267</v>
       </c>
       <c r="AP23">
-        <v>1222.9</v>
+        <v>1222.9000000000001</v>
       </c>
       <c r="AQ23">
-        <v>1249.6</v>
+        <v>1249.5999999999999</v>
       </c>
       <c r="AR23">
         <v>1286.8</v>
       </c>
       <c r="AS23">
-        <v>1290.9</v>
+        <v>1290.9000000000001</v>
       </c>
       <c r="AT23">
         <v>1271.8</v>
       </c>
       <c r="AU23">
-        <v>1267.9</v>
+        <v>1267.9000000000001</v>
       </c>
       <c r="AV23">
-        <v>1270.1</v>
+        <v>1270.0999999999999</v>
       </c>
       <c r="AW23">
         <v>1304.8</v>
@@ -4699,135 +4909,132 @@
         <v>2014.2</v>
       </c>
       <c r="BZ23">
-        <v>2069.3</v>
+        <v>2069.3000000000002</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
+    <row r="24" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B24" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ24">
         <v>878.1</v>
@@ -4872,7 +5079,7 @@
         <v>1082.2</v>
       </c>
       <c r="BE24">
-        <v>1083.4</v>
+        <v>1083.4000000000001</v>
       </c>
       <c r="BF24">
         <v>1115.7</v>
@@ -4890,7 +5097,7 @@
         <v>1225.2</v>
       </c>
       <c r="BK24">
-        <v>1237.6</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="BL24">
         <v>1255</v>
@@ -4914,10 +5121,10 @@
         <v>1278.8</v>
       </c>
       <c r="BS24">
-        <v>1145.4</v>
+        <v>1145.4000000000001</v>
       </c>
       <c r="BT24">
-        <v>1139.1</v>
+        <v>1139.0999999999999</v>
       </c>
       <c r="BU24">
         <v>1195</v>
@@ -4938,132 +5145,129 @@
         <v>1425.2</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
+    <row r="25" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B25" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ25">
         <v>371.7</v>
@@ -5135,7 +5339,7 @@
         <v>551.4</v>
       </c>
       <c r="BN25">
-        <v>565.8</v>
+        <v>565.79999999999995</v>
       </c>
       <c r="BO25">
         <v>570.9</v>
@@ -5144,7 +5348,7 @@
         <v>581.1</v>
       </c>
       <c r="BQ25">
-        <v>571.3</v>
+        <v>571.29999999999995</v>
       </c>
       <c r="BR25">
         <v>566.4</v>
@@ -5153,16 +5357,16 @@
         <v>551.6</v>
       </c>
       <c r="BT25">
-        <v>568.8</v>
+        <v>568.79999999999995</v>
       </c>
       <c r="BU25">
         <v>576.5</v>
       </c>
       <c r="BV25">
-        <v>593.7</v>
+        <v>593.70000000000005</v>
       </c>
       <c r="BW25">
-        <v>601.3</v>
+        <v>601.29999999999995</v>
       </c>
       <c r="BX25">
         <v>605.6</v>
@@ -5174,12 +5378,9 @@
         <v>644.1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
+    <row r="26" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>829.8</v>
@@ -5215,13 +5416,13 @@
         <v>1052</v>
       </c>
       <c r="N26">
-        <v>1081.6</v>
+        <v>1081.5999999999999</v>
       </c>
       <c r="O26">
-        <v>1105.4</v>
+        <v>1105.4000000000001</v>
       </c>
       <c r="P26">
-        <v>1115.9</v>
+        <v>1115.9000000000001</v>
       </c>
       <c r="Q26">
         <v>1119.7</v>
@@ -5230,13 +5431,13 @@
         <v>1134</v>
       </c>
       <c r="S26">
-        <v>1170.9</v>
+        <v>1170.9000000000001</v>
       </c>
       <c r="T26">
-        <v>1197.1</v>
+        <v>1197.0999999999999</v>
       </c>
       <c r="U26">
-        <v>1235.9</v>
+        <v>1235.9000000000001</v>
       </c>
       <c r="V26">
         <v>1260.3</v>
@@ -5326,7 +5527,7 @@
         <v>2138.4</v>
       </c>
       <c r="AY26">
-        <v>2198.3</v>
+        <v>2198.3000000000002</v>
       </c>
       <c r="AZ26">
         <v>2284.9</v>
@@ -5380,10 +5581,10 @@
         <v>2641.5</v>
       </c>
       <c r="BQ26">
-        <v>2608.2</v>
+        <v>2608.1999999999998</v>
       </c>
       <c r="BR26">
-        <v>2513.8</v>
+        <v>2513.8000000000002</v>
       </c>
       <c r="BS26">
         <v>2274.9</v>
@@ -5401,7 +5602,7 @@
         <v>2448</v>
       </c>
       <c r="BX26">
-        <v>2559.7</v>
+        <v>2559.6999999999998</v>
       </c>
       <c r="BY26">
         <v>2649.1</v>
@@ -5410,132 +5611,129 @@
         <v>2658.9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
+    <row r="27" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ27">
         <v>1571.5</v>
@@ -5580,7 +5778,7 @@
         <v>2061</v>
       </c>
       <c r="BE27">
-        <v>2069.8</v>
+        <v>2069.8000000000002</v>
       </c>
       <c r="BF27">
         <v>2140.5</v>
@@ -5589,19 +5787,19 @@
         <v>2173.1</v>
       </c>
       <c r="BH27">
-        <v>2197.8</v>
+        <v>2197.8000000000002</v>
       </c>
       <c r="BI27">
-        <v>2226.8</v>
+        <v>2226.8000000000002</v>
       </c>
       <c r="BJ27">
         <v>2209.9</v>
       </c>
       <c r="BK27">
-        <v>2238.8</v>
+        <v>2238.8000000000002</v>
       </c>
       <c r="BL27">
-        <v>2248.3</v>
+        <v>2248.3000000000002</v>
       </c>
       <c r="BM27">
         <v>2256.5</v>
@@ -5610,13 +5808,13 @@
         <v>2234</v>
       </c>
       <c r="BO27">
-        <v>2232.3</v>
+        <v>2232.3000000000002</v>
       </c>
       <c r="BP27">
         <v>2213.5</v>
       </c>
       <c r="BQ27">
-        <v>2172.2</v>
+        <v>2172.1999999999998</v>
       </c>
       <c r="BR27">
         <v>2065.9</v>
@@ -5637,162 +5835,159 @@
         <v>1992.5</v>
       </c>
       <c r="BX27">
-        <v>2102.2</v>
+        <v>2102.1999999999998</v>
       </c>
       <c r="BY27">
         <v>2181.5</v>
       </c>
       <c r="BZ27">
-        <v>2192.8</v>
+        <v>2192.8000000000002</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
+    <row r="28" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ28">
         <v>323.7</v>
       </c>
       <c r="AR28">
-        <v>318.9</v>
+        <v>318.89999999999998</v>
       </c>
       <c r="AS28">
         <v>313</v>
       </c>
       <c r="AT28">
-        <v>326.9</v>
+        <v>326.89999999999998</v>
       </c>
       <c r="AU28">
         <v>320.3</v>
       </c>
       <c r="AV28">
-        <v>306.9</v>
+        <v>306.89999999999998</v>
       </c>
       <c r="AW28">
-        <v>325.4</v>
+        <v>325.39999999999998</v>
       </c>
       <c r="AX28">
         <v>334.5</v>
@@ -5882,368 +6077,362 @@
         <v>466.2</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="4">
+    <row r="29" spans="2:78" x14ac:dyDescent="0.75">
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2">
         <v>2412</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>2407.4</v>
       </c>
-      <c r="E29" s="4">
-        <v>2422.7</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="E29" s="2">
+        <v>2422.6999999999998</v>
+      </c>
+      <c r="F29" s="2">
         <v>2422.4</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="2">
         <v>2392.4</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="2">
         <v>2392.6</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <v>2396</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="2">
         <v>2404.4</v>
       </c>
-      <c r="K29" s="4">
-        <v>2374.7</v>
-      </c>
-      <c r="L29" s="4">
+      <c r="K29" s="2">
+        <v>2374.6999999999998</v>
+      </c>
+      <c r="L29" s="2">
         <v>2386.5</v>
       </c>
-      <c r="M29" s="4">
-        <v>2426.7</v>
-      </c>
-      <c r="N29" s="4">
+      <c r="M29" s="2">
+        <v>2426.6999999999998</v>
+      </c>
+      <c r="N29" s="2">
         <v>2405.6</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="2">
         <v>2414</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="2">
         <v>2422.1</v>
       </c>
-      <c r="Q29" s="4">
-        <v>2415.7</v>
-      </c>
-      <c r="R29" s="4">
+      <c r="Q29" s="2">
+        <v>2415.6999999999998</v>
+      </c>
+      <c r="R29" s="2">
         <v>2390.5</v>
       </c>
-      <c r="S29" s="4">
-        <v>2406.2</v>
-      </c>
-      <c r="T29" s="4">
-        <v>2436.2</v>
-      </c>
-      <c r="U29" s="4">
-        <v>2436.2</v>
-      </c>
-      <c r="V29" s="4">
+      <c r="S29" s="2">
+        <v>2406.1999999999998</v>
+      </c>
+      <c r="T29" s="2">
+        <v>2436.1999999999998</v>
+      </c>
+      <c r="U29" s="2">
+        <v>2436.1999999999998</v>
+      </c>
+      <c r="V29" s="2">
         <v>2453</v>
       </c>
-      <c r="W29" s="4">
-        <v>2440.2</v>
-      </c>
-      <c r="X29" s="4">
+      <c r="W29" s="2">
+        <v>2440.1999999999998</v>
+      </c>
+      <c r="X29" s="2">
         <v>2471.9</v>
       </c>
-      <c r="Y29" s="4">
-        <v>2483.3</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>2495.8</v>
-      </c>
-      <c r="AA29" s="4">
-        <v>2486.8</v>
-      </c>
-      <c r="AB29" s="4">
+      <c r="Y29" s="2">
+        <v>2483.3000000000002</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>2495.8000000000002</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>2486.8000000000002</v>
+      </c>
+      <c r="AB29" s="2">
         <v>2530.4</v>
       </c>
-      <c r="AC29" s="4">
+      <c r="AC29" s="2">
         <v>2549.4</v>
       </c>
-      <c r="AD29" s="4">
+      <c r="AD29" s="2">
         <v>2564.5</v>
       </c>
-      <c r="AE29" s="4">
+      <c r="AE29" s="2">
         <v>2582.9</v>
       </c>
-      <c r="AF29" s="4">
-        <v>2592.2</v>
-      </c>
-      <c r="AG29" s="4">
+      <c r="AF29" s="2">
+        <v>2592.1999999999998</v>
+      </c>
+      <c r="AG29" s="2">
         <v>2623.4</v>
       </c>
-      <c r="AH29" s="4">
+      <c r="AH29" s="2">
         <v>2664.2</v>
       </c>
-      <c r="AI29" s="4">
+      <c r="AI29" s="2">
         <v>2645.3</v>
       </c>
-      <c r="AJ29" s="4">
+      <c r="AJ29" s="2">
         <v>2671.4</v>
       </c>
-      <c r="AK29" s="4">
+      <c r="AK29" s="2">
         <v>2660.1</v>
       </c>
-      <c r="AL29" s="4">
+      <c r="AL29" s="2">
         <v>2676.4</v>
       </c>
-      <c r="AM29" s="4">
+      <c r="AM29" s="2">
         <v>2718.3</v>
       </c>
-      <c r="AN29" s="4">
+      <c r="AN29" s="2">
         <v>2765.4</v>
       </c>
-      <c r="AO29" s="4">
+      <c r="AO29" s="2">
         <v>2762.7</v>
       </c>
-      <c r="AP29" s="4">
+      <c r="AP29" s="2">
         <v>2808.5</v>
       </c>
-      <c r="AQ29" s="4">
+      <c r="AQ29" s="2">
         <v>2857.3</v>
       </c>
-      <c r="AR29" s="4">
+      <c r="AR29" s="2">
         <v>2879.3</v>
       </c>
-      <c r="AS29" s="4">
+      <c r="AS29" s="2">
         <v>2894.2</v>
       </c>
-      <c r="AT29" s="4">
+      <c r="AT29" s="2">
         <v>2915.6</v>
       </c>
-      <c r="AU29" s="4">
+      <c r="AU29" s="2">
         <v>2917.9</v>
       </c>
-      <c r="AV29" s="4">
+      <c r="AV29" s="2">
         <v>2944.7</v>
       </c>
-      <c r="AW29" s="4">
+      <c r="AW29" s="2">
         <v>2951.2</v>
       </c>
-      <c r="AX29" s="4">
+      <c r="AX29" s="2">
         <v>2969.1</v>
       </c>
-      <c r="AY29" s="4">
+      <c r="AY29" s="2">
         <v>2982.7</v>
       </c>
-      <c r="AZ29" s="4">
+      <c r="AZ29" s="2">
         <v>2990.8</v>
       </c>
-      <c r="BA29" s="4">
+      <c r="BA29" s="2">
         <v>2996.3</v>
       </c>
-      <c r="BB29" s="4">
+      <c r="BB29" s="2">
         <v>2994.6</v>
       </c>
-      <c r="BC29" s="4">
+      <c r="BC29" s="2">
         <v>3009.6</v>
       </c>
-      <c r="BD29" s="4">
+      <c r="BD29" s="2">
         <v>3007.8</v>
       </c>
-      <c r="BE29" s="4">
+      <c r="BE29" s="2">
         <v>3017.8</v>
       </c>
-      <c r="BF29" s="4">
+      <c r="BF29" s="2">
         <v>3020.1</v>
       </c>
-      <c r="BG29" s="4">
+      <c r="BG29" s="2">
         <v>3058.5</v>
       </c>
-      <c r="BH29" s="4">
+      <c r="BH29" s="2">
         <v>3057.6</v>
       </c>
-      <c r="BI29" s="4">
+      <c r="BI29" s="2">
         <v>3053.1</v>
       </c>
-      <c r="BJ29" s="4">
+      <c r="BJ29" s="2">
         <v>3078.2</v>
       </c>
-      <c r="BK29" s="4">
+      <c r="BK29" s="2">
         <v>3082.5</v>
       </c>
-      <c r="BL29" s="4">
+      <c r="BL29" s="2">
         <v>3110.7</v>
       </c>
-      <c r="BM29" s="4">
+      <c r="BM29" s="2">
         <v>3124.9</v>
       </c>
-      <c r="BN29" s="4">
+      <c r="BN29" s="2">
         <v>3149.5</v>
       </c>
-      <c r="BO29" s="4">
+      <c r="BO29" s="2">
         <v>3156.9</v>
       </c>
-      <c r="BP29" s="4">
+      <c r="BP29" s="2">
         <v>3184.3</v>
       </c>
-      <c r="BQ29" s="4">
+      <c r="BQ29" s="2">
         <v>3210</v>
       </c>
-      <c r="BR29" s="4">
+      <c r="BR29" s="2">
         <v>3231.9</v>
       </c>
-      <c r="BS29" s="4">
+      <c r="BS29" s="2">
         <v>3268.8</v>
       </c>
-      <c r="BT29" s="4">
+      <c r="BT29" s="2">
         <v>3316.6</v>
       </c>
-      <c r="BU29" s="4">
+      <c r="BU29" s="2">
         <v>3325.7</v>
       </c>
-      <c r="BV29" s="4">
+      <c r="BV29" s="2">
         <v>3331.6</v>
       </c>
-      <c r="BW29" s="4">
+      <c r="BW29" s="2">
         <v>3317.3</v>
       </c>
-      <c r="BX29" s="4">
+      <c r="BX29" s="2">
         <v>3327.6</v>
       </c>
-      <c r="BY29" s="4">
+      <c r="BY29" s="2">
         <v>3304.1</v>
       </c>
-      <c r="BZ29" s="4">
+      <c r="BZ29" s="2">
         <v>3283</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>72</v>
-      </c>
+    <row r="30" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B30" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ30">
         <v>946.8</v>
@@ -6261,19 +6450,19 @@
         <v>1002.5</v>
       </c>
       <c r="AV30">
-        <v>1037.1</v>
+        <v>1037.0999999999999</v>
       </c>
       <c r="AW30">
         <v>1036.8</v>
       </c>
       <c r="AX30">
-        <v>1056.1</v>
+        <v>1056.0999999999999</v>
       </c>
       <c r="AY30">
-        <v>1067.6</v>
+        <v>1067.5999999999999</v>
       </c>
       <c r="AZ30">
-        <v>1073.9</v>
+        <v>1073.9000000000001</v>
       </c>
       <c r="BA30">
         <v>1085.7</v>
@@ -6285,10 +6474,10 @@
         <v>1095.8</v>
       </c>
       <c r="BD30">
-        <v>1094.6</v>
+        <v>1094.5999999999999</v>
       </c>
       <c r="BE30">
-        <v>1103.1</v>
+        <v>1103.0999999999999</v>
       </c>
       <c r="BF30">
         <v>1103.5</v>
@@ -6297,28 +6486,28 @@
         <v>1132.2</v>
       </c>
       <c r="BH30">
-        <v>1124.4</v>
+        <v>1124.4000000000001</v>
       </c>
       <c r="BI30">
         <v>1114.3</v>
       </c>
       <c r="BJ30">
-        <v>1130.4</v>
+        <v>1130.4000000000001</v>
       </c>
       <c r="BK30">
         <v>1123.7</v>
       </c>
       <c r="BL30">
-        <v>1142.1</v>
+        <v>1142.0999999999999</v>
       </c>
       <c r="BM30">
-        <v>1152.1</v>
+        <v>1152.0999999999999</v>
       </c>
       <c r="BN30">
         <v>1171.3</v>
       </c>
       <c r="BO30">
-        <v>1189.1</v>
+        <v>1189.0999999999999</v>
       </c>
       <c r="BP30">
         <v>1214.5</v>
@@ -6336,7 +6525,7 @@
         <v>1292.8</v>
       </c>
       <c r="BU30">
-        <v>1304.6</v>
+        <v>1304.5999999999999</v>
       </c>
       <c r="BV30">
         <v>1324</v>
@@ -6354,147 +6543,144 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
+    <row r="31" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B31" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ31">
         <v>593.4</v>
       </c>
       <c r="AR31">
-        <v>603.3</v>
+        <v>603.29999999999995</v>
       </c>
       <c r="AS31">
-        <v>607.8</v>
+        <v>607.79999999999995</v>
       </c>
       <c r="AT31">
         <v>620.1</v>
       </c>
       <c r="AU31">
-        <v>630.3</v>
+        <v>630.29999999999995</v>
       </c>
       <c r="AV31">
         <v>659.9</v>
@@ -6590,132 +6776,129 @@
         <v>863.6</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
+    <row r="32" spans="2:78" x14ac:dyDescent="0.75">
       <c r="B32" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP32" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ32">
         <v>353.2</v>
@@ -6826,132 +7009,129 @@
         <v>484.4</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>78</v>
-      </c>
+    <row r="33" spans="1:79" x14ac:dyDescent="0.75">
       <c r="B33" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="P33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="X33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Z33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AA33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AB33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AD33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AF33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AG33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AH33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AI33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AK33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AL33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AO33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AP33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ33">
         <v>1923.7</v>
@@ -7062,15 +7242,12 @@
         <v>1934.9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
+    <row r="34" spans="1:79" x14ac:dyDescent="0.75">
       <c r="B34" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>-159.2</v>
+        <v>-159.19999999999999</v>
       </c>
       <c r="D34">
         <v>-172.1</v>
@@ -7091,7 +7268,7 @@
         <v>-133.5</v>
       </c>
       <c r="J34">
-        <v>-138.8</v>
+        <v>-138.80000000000001</v>
       </c>
       <c r="K34">
         <v>-168.1</v>
@@ -7109,7 +7286,7 @@
         <v>-169.1</v>
       </c>
       <c r="P34">
-        <v>-139.8</v>
+        <v>-139.80000000000001</v>
       </c>
       <c r="Q34">
         <v>-97</v>
@@ -7166,7 +7343,7 @@
         <v>-105.6</v>
       </c>
       <c r="AI34">
-        <v>-4.4</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="AJ34">
         <v>-91.8</v>
@@ -7181,7 +7358,7 @@
         <v>59.7</v>
       </c>
       <c r="AN34">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AO34">
         <v>45.3</v>
@@ -7202,7 +7379,7 @@
         <v>-82.1</v>
       </c>
       <c r="AU34">
-        <v>-79.6</v>
+        <v>-79.599999999999994</v>
       </c>
       <c r="AV34">
         <v>-48.5</v>
@@ -7298,24 +7475,186 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>82</v>
-      </c>
+    <row r="35" spans="1:79" ht="19.75" x14ac:dyDescent="0.95">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
+      <c r="BL35" s="4"/>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4"/>
+      <c r="BO35" s="4"/>
+      <c r="BP35" s="4"/>
+      <c r="BQ35" s="4"/>
+      <c r="BR35" s="4"/>
+      <c r="BS35" s="4"/>
+      <c r="BT35" s="4"/>
+      <c r="BU35" s="4"/>
+      <c r="BV35" s="4"/>
+      <c r="BW35" s="4"/>
+      <c r="BX35" s="4"/>
+      <c r="BY35" s="4"/>
+      <c r="BZ35" s="4"/>
+      <c r="CA35" s="4"/>
     </row>
-    <row r="36">
-      <c r="A36" s="7" t="s">
-        <v>83</v>
-      </c>
+    <row r="36" spans="1:79" x14ac:dyDescent="0.75">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
+      <c r="BL36" s="4"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4"/>
+      <c r="BO36" s="4"/>
+      <c r="BP36" s="4"/>
+      <c r="BQ36" s="4"/>
+      <c r="BR36" s="4"/>
+      <c r="BS36" s="4"/>
+      <c r="BT36" s="4"/>
+      <c r="BU36" s="4"/>
+      <c r="BV36" s="4"/>
+      <c r="BW36" s="4"/>
+      <c r="BX36" s="4"/>
+      <c r="BY36" s="4"/>
+      <c r="BZ36" s="4"/>
+      <c r="CA36" s="4"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="26">
+    <mergeCell ref="A36:CA36"/>
+    <mergeCell ref="BK6:BN6"/>
+    <mergeCell ref="BO6:BR6"/>
+    <mergeCell ref="BS6:BV6"/>
+    <mergeCell ref="BW6:BZ6"/>
+    <mergeCell ref="A35:CA35"/>
+    <mergeCell ref="AQ6:AT6"/>
+    <mergeCell ref="AU6:AX6"/>
+    <mergeCell ref="AY6:BB6"/>
+    <mergeCell ref="BC6:BF6"/>
+    <mergeCell ref="BG6:BJ6"/>
     <mergeCell ref="A1:BZ1"/>
     <mergeCell ref="A2:BZ2"/>
     <mergeCell ref="A3:BZ3"/>
     <mergeCell ref="A4:BZ4"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="K6:N6"/>
@@ -7326,17 +7665,6 @@
     <mergeCell ref="AE6:AH6"/>
     <mergeCell ref="AI6:AL6"/>
     <mergeCell ref="AM6:AP6"/>
-    <mergeCell ref="AQ6:AT6"/>
-    <mergeCell ref="AU6:AX6"/>
-    <mergeCell ref="AY6:BB6"/>
-    <mergeCell ref="BC6:BF6"/>
-    <mergeCell ref="BG6:BJ6"/>
-    <mergeCell ref="BK6:BN6"/>
-    <mergeCell ref="BO6:BR6"/>
-    <mergeCell ref="BS6:BV6"/>
-    <mergeCell ref="BW6:BZ6"/>
-    <mergeCell ref="A35:CA35"/>
-    <mergeCell ref="A36:CA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
